--- a/final_data_pipeline/output/311611longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311611longform_elec_options.xlsx
@@ -669,7 +669,7 @@
         <v>65</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -684,10 +684,10 @@
         <v>550682.5660311278</v>
       </c>
       <c r="R2">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="S2">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="T2">
         <v>68.83532075389098</v>
@@ -722,7 +722,7 @@
         <v>66</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -925,7 +925,7 @@
         <v>65</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -940,10 +940,10 @@
         <v>568113.8064823374</v>
       </c>
       <c r="R7">
-        <v>1.550576923076923</v>
+        <v>1.432007893438579</v>
       </c>
       <c r="S7">
-        <v>1.658958333333333</v>
+        <v>1.522400424853956</v>
       </c>
       <c r="T7">
         <v>71.01422581029217</v>
@@ -1125,7 +1125,7 @@
         <v>65</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1140,10 +1140,10 @@
         <v>773523.9672825281</v>
       </c>
       <c r="R11">
-        <v>1.550576923076923</v>
+        <v>1.674945181765724</v>
       </c>
       <c r="S11">
-        <v>1.658958333333333</v>
+        <v>1.804078036500944</v>
       </c>
       <c r="T11">
         <v>96.690495910316</v>
@@ -1284,7 +1284,7 @@
         <v>65</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1299,10 +1299,10 @@
         <v>395888.8815671804</v>
       </c>
       <c r="R14">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="S14">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="T14">
         <v>49.48611019589755</v>
@@ -1390,7 +1390,7 @@
         <v>65</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1405,10 +1405,10 @@
         <v>733217.7372883369</v>
       </c>
       <c r="R16">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="S16">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="T16">
         <v>91.6522171610421</v>
@@ -1496,7 +1496,7 @@
         <v>65</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1511,10 +1511,10 @@
         <v>416520.5996813791</v>
       </c>
       <c r="R18">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="S18">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="T18">
         <v>52.06507496017239</v>
@@ -1649,7 +1649,7 @@
         <v>65</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1664,10 +1664,10 @@
         <v>668390.3736317258</v>
       </c>
       <c r="R21">
-        <v>1.550576923076923</v>
+        <v>1.458486584262888</v>
       </c>
       <c r="S21">
-        <v>1.658958333333333</v>
+        <v>1.552746181345467</v>
       </c>
       <c r="T21">
         <v>83.54879670396572</v>
@@ -1702,7 +1702,7 @@
         <v>66</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -1799,7 +1799,7 @@
         <v>65</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1814,10 +1814,10 @@
         <v>849837.99150891</v>
       </c>
       <c r="R24">
-        <v>1.550576923076923</v>
+        <v>1.583068924143447</v>
       </c>
       <c r="S24">
-        <v>1.658958333333333</v>
+        <v>1.696684247214952</v>
       </c>
       <c r="T24">
         <v>106.2297489386138</v>
@@ -1905,7 +1905,7 @@
         <v>65</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -1920,10 +1920,10 @@
         <v>418041.7776689981</v>
       </c>
       <c r="R26">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="S26">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="T26">
         <v>52.25522220862477</v>
@@ -1958,7 +1958,7 @@
         <v>65</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -1973,10 +1973,10 @@
         <v>455750.053225397</v>
       </c>
       <c r="R27">
-        <v>1.550576923076923</v>
+        <v>1.674333288469303</v>
       </c>
       <c r="S27">
-        <v>1.658958333333333</v>
+        <v>1.803359265239363</v>
       </c>
       <c r="T27">
         <v>56.96875665317463</v>
@@ -2011,7 +2011,7 @@
         <v>65</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2026,10 +2026,10 @@
         <v>576258.5018226566</v>
       </c>
       <c r="R28">
-        <v>1.550576923076923</v>
+        <v>1.612196950762309</v>
       </c>
       <c r="S28">
-        <v>1.658958333333333</v>
+        <v>1.730616680249932</v>
       </c>
       <c r="T28">
         <v>72.03231272783208</v>
@@ -2064,7 +2064,7 @@
         <v>66</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2111,7 +2111,7 @@
         <v>65</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2126,10 +2126,10 @@
         <v>722390.8604903091</v>
       </c>
       <c r="R30">
-        <v>1.550576923076923</v>
+        <v>1.617332194197838</v>
       </c>
       <c r="S30">
-        <v>1.658958333333333</v>
+        <v>1.73660999151892</v>
       </c>
       <c r="T30">
         <v>90.29885756128863</v>
@@ -2164,7 +2164,7 @@
         <v>65</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2179,10 +2179,10 @@
         <v>1012286.637426617</v>
       </c>
       <c r="R31">
-        <v>1.550576923076923</v>
+        <v>1.593030259848797</v>
       </c>
       <c r="S31">
-        <v>1.658958333333333</v>
+        <v>1.708276634982499</v>
       </c>
       <c r="T31">
         <v>126.5358296783272</v>
@@ -2473,7 +2473,7 @@
         <v>65</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L37">
         <v>8000</v>
@@ -2488,10 +2488,10 @@
         <v>869784.1599779146</v>
       </c>
       <c r="R37">
-        <v>1.550576923076923</v>
+        <v>1.674945181765724</v>
       </c>
       <c r="S37">
-        <v>1.658958333333333</v>
+        <v>1.804078036500944</v>
       </c>
       <c r="T37">
         <v>108.7230199972393</v>
@@ -2526,7 +2526,7 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L38">
         <v>8000</v>
@@ -2541,10 +2541,10 @@
         <v>691618.0897577453</v>
       </c>
       <c r="R38">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="S38">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="T38">
         <v>86.45226121971815</v>
@@ -2579,7 +2579,7 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2626,7 +2626,7 @@
         <v>65</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -2641,10 +2641,10 @@
         <v>747868.2115591286</v>
       </c>
       <c r="R40">
-        <v>1.550576923076923</v>
+        <v>1.674945181765724</v>
       </c>
       <c r="S40">
-        <v>1.658958333333333</v>
+        <v>1.804078036500944</v>
       </c>
       <c r="T40">
         <v>93.48352644489107</v>
@@ -2732,7 +2732,7 @@
         <v>65</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2747,10 +2747,10 @@
         <v>464472.7899161247</v>
       </c>
       <c r="R42">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="S42">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="T42">
         <v>58.05909873951558</v>
@@ -2785,7 +2785,7 @@
         <v>65</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -2800,10 +2800,10 @@
         <v>430375.7798608996</v>
       </c>
       <c r="R43">
-        <v>1.550576923076923</v>
+        <v>1.459904774678112</v>
       </c>
       <c r="S43">
-        <v>1.658958333333333</v>
+        <v>1.554373915558126</v>
       </c>
       <c r="T43">
         <v>53.79697248261245</v>
